--- a/result/without_base/12/valence/s01_0.xlsx
+++ b/result/without_base/12/valence/s01_0.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5066666603088379</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -516,7 +516,7 @@
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>5e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4583333134651184</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C2" t="n">
-        <v>20150.67057291667</v>
+        <v>41717.30859375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5513636361468922</v>
+        <v>0.5604545365680348</v>
       </c>
       <c r="E2" t="n">
-        <v>20147.50514914773</v>
+        <v>41717.84481534091</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5033333400885264</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C3" t="n">
-        <v>19394.54427083333</v>
+        <v>40956.158203125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5616666647520933</v>
+        <v>0.5878409093076532</v>
       </c>
       <c r="E3" t="n">
-        <v>19392.26154119318</v>
+        <v>40955.07848011364</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4716666539510091</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C4" t="n">
-        <v>18663.36328125</v>
+        <v>40204.59375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5763636312701486</v>
+        <v>0.6005681807344611</v>
       </c>
       <c r="E4" t="n">
-        <v>18661.17693536932</v>
+        <v>40202.96484375</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5183333357175192</v>
+        <v>0.5174999833106995</v>
       </c>
       <c r="C5" t="n">
-        <v>17958.576171875</v>
+        <v>39462.267578125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5818181782960892</v>
+        <v>0.6344318173148416</v>
       </c>
       <c r="E5" t="n">
-        <v>17956.28053977273</v>
+        <v>39458.72833806818</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5283333460489908</v>
+        <v>0.5475000143051147</v>
       </c>
       <c r="C6" t="n">
-        <v>17277.94075520833</v>
+        <v>38731.603515625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6187878847122192</v>
+        <v>0.6580681855028326</v>
       </c>
       <c r="E6" t="n">
-        <v>17275.14328835227</v>
+        <v>38726.89737215909</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4900000095367432</v>
+        <v>0.5249999761581421</v>
       </c>
       <c r="C7" t="n">
-        <v>16620.20768229167</v>
+        <v>38012.69140625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6450000026009299</v>
+        <v>0.6718181859363209</v>
       </c>
       <c r="E7" t="n">
-        <v>16617.72212357954</v>
+        <v>38006.85298295454</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5083333253860474</v>
+        <v>0.5200000107288361</v>
       </c>
       <c r="C8" t="n">
-        <v>15987.48014322917</v>
+        <v>37302.8359375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6599999991330233</v>
+        <v>0.6957954493435946</v>
       </c>
       <c r="E8" t="n">
-        <v>15984.47052556818</v>
+        <v>37297.52698863636</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5066666801770529</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C9" t="n">
-        <v>15375.7685546875</v>
+        <v>36607.234375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6778787862170826</v>
+        <v>0.6973863623358987</v>
       </c>
       <c r="E9" t="n">
-        <v>15373.62096058239</v>
+        <v>36600.78799715909</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4816666642824809</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C10" t="n">
-        <v>14788.46614583333</v>
+        <v>35920.08203125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6477272754365747</v>
+        <v>0.7292045517401262</v>
       </c>
       <c r="E10" t="n">
-        <v>14786.03995028409</v>
+        <v>35913.82848011364</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5033333400885264</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C11" t="n">
-        <v>14220.63151041667</v>
+        <v>35244.263671875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6862121305682443</v>
+        <v>0.745568183335391</v>
       </c>
       <c r="E11" t="n">
-        <v>14218.29936079545</v>
+        <v>35238.46875</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5433333317438761</v>
+        <v>0.4725000113248825</v>
       </c>
       <c r="C12" t="n">
-        <v>13673.96354166667</v>
+        <v>34581.859375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6819696995345029</v>
+        <v>0.7265909151597456</v>
       </c>
       <c r="E12" t="n">
-        <v>13671.75914417614</v>
+        <v>34575.03941761364</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5433333118756613</v>
+        <v>0.4625000059604645</v>
       </c>
       <c r="C13" t="n">
-        <v>13146.74869791667</v>
+        <v>33928.630859375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.726666661826047</v>
+        <v>0.7301136363636364</v>
       </c>
       <c r="E13" t="n">
-        <v>13144.6171431108</v>
+        <v>33922.40731534091</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5316666563351949</v>
+        <v>0.5075000077486038</v>
       </c>
       <c r="C14" t="n">
-        <v>12639.19205729167</v>
+        <v>33286.423828125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7106060602448203</v>
+        <v>0.7421590956774625</v>
       </c>
       <c r="E14" t="n">
-        <v>12637.11776455966</v>
+        <v>33280.328125</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5199999908606211</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C15" t="n">
-        <v>12149.73111979167</v>
+        <v>32655.9697265625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7171212109652433</v>
+        <v>0.7518181963400408</v>
       </c>
       <c r="E15" t="n">
-        <v>12147.76043146307</v>
+        <v>32649.62943892046</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5033333400885264</v>
+        <v>0.4975000023841858</v>
       </c>
       <c r="C16" t="n">
-        <v>11677.97298177083</v>
+        <v>32035.9052734375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7265151549469341</v>
+        <v>0.7665909095243975</v>
       </c>
       <c r="E16" t="n">
-        <v>11676.0791015625</v>
+        <v>32029.64346590909</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5333333313465118</v>
+        <v>0.4975000023841858</v>
       </c>
       <c r="C17" t="n">
-        <v>11223.35709635417</v>
+        <v>31425.525390625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7431818219748411</v>
+        <v>0.798863638531078</v>
       </c>
       <c r="E17" t="n">
-        <v>11221.66384055398</v>
+        <v>31420.05308948864</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5166666607062022</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C18" t="n">
-        <v>10785.89583333333</v>
+        <v>30827.583984375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7562121261249889</v>
+        <v>0.8103409138592806</v>
       </c>
       <c r="E18" t="n">
-        <v>10783.88503196023</v>
+        <v>30821.21271306818</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C19" t="n">
-        <v>10363.912109375</v>
+        <v>30239.0224609375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7618181813846935</v>
+        <v>0.8273863684047352</v>
       </c>
       <c r="E19" t="n">
-        <v>10362.19753196023</v>
+        <v>30232.82563920454</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5350000063578287</v>
+        <v>0.4849999994039536</v>
       </c>
       <c r="C20" t="n">
-        <v>9957.668619791666</v>
+        <v>29661.8740234375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7663636370138689</v>
+        <v>0.8090909177606757</v>
       </c>
       <c r="E20" t="n">
-        <v>9956.036177201704</v>
+        <v>29655.15145596591</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5583333373069763</v>
+        <v>0.4825000166893005</v>
       </c>
       <c r="C21" t="n">
-        <v>9566.6357421875</v>
+        <v>29093.6259765625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7498484904115851</v>
+        <v>0.8359090902588584</v>
       </c>
       <c r="E21" t="n">
-        <v>9564.878773082386</v>
+        <v>29087.01100852273</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5166666607062022</v>
+        <v>0.4899999797344208</v>
       </c>
       <c r="C22" t="n">
-        <v>9189.6103515625</v>
+        <v>28535.16796875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7521212128075686</v>
+        <v>0.8451136459003795</v>
       </c>
       <c r="E22" t="n">
-        <v>9187.99755859375</v>
+        <v>28529.00550426136</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5216666658719381</v>
+        <v>0.4749999940395355</v>
       </c>
       <c r="C23" t="n">
-        <v>8826.691080729166</v>
+        <v>27986.6787109375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7715151526711204</v>
+        <v>0.8603409041057933</v>
       </c>
       <c r="E23" t="n">
-        <v>8825.041060014204</v>
+        <v>27980.7109375</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5549999872843424</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C24" t="n">
-        <v>8477.1181640625</v>
+        <v>27448.2001953125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7871212065219879</v>
+        <v>0.8701136328957297</v>
       </c>
       <c r="E24" t="n">
-        <v>8475.523703835228</v>
+        <v>27442.30770596591</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5349999864896139</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C25" t="n">
-        <v>8140.590494791667</v>
+        <v>26919.3046875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7746969705278223</v>
+        <v>0.8676136406985197</v>
       </c>
       <c r="E25" t="n">
-        <v>8139.07499556108</v>
+        <v>26913.44762073864</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5150000055631002</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C26" t="n">
-        <v>7816.575032552083</v>
+        <v>26399.0732421875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7692424194379286</v>
+        <v>0.8719318129799583</v>
       </c>
       <c r="E26" t="n">
-        <v>7815.079900568182</v>
+        <v>26393.916015625</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5299999912579855</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C27" t="n">
-        <v>7504.384765625</v>
+        <v>25889.1240234375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7898484793576327</v>
+        <v>0.8563636432994496</v>
       </c>
       <c r="E27" t="n">
-        <v>7503.032159978693</v>
+        <v>25883.85582386364</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5166666706403097</v>
+        <v>0.4675000160932541</v>
       </c>
       <c r="C28" t="n">
-        <v>7204.504720052083</v>
+        <v>25388.3076171875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7440909120169553</v>
+        <v>0.8730681809512052</v>
       </c>
       <c r="E28" t="n">
-        <v>7202.94462446733</v>
+        <v>25382.69176136364</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5083333452542623</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C29" t="n">
-        <v>6915.177083333333</v>
+        <v>24895.212890625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7304545424201272</v>
+        <v>0.8947727192531932</v>
       </c>
       <c r="E29" t="n">
-        <v>6913.79248046875</v>
+        <v>24890.35919744318</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5233333309491476</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C30" t="n">
-        <v>6636.481770833333</v>
+        <v>24412.1494140625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7963636327873577</v>
+        <v>0.8992045413364064</v>
       </c>
       <c r="E30" t="n">
-        <v>6635.187433416193</v>
+        <v>24407.12961647727</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5016666650772095</v>
+        <v>0.5274999737739563</v>
       </c>
       <c r="C31" t="n">
-        <v>6368.634928385417</v>
+        <v>23938.0107421875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7681818116794933</v>
+        <v>0.8837499889460477</v>
       </c>
       <c r="E31" t="n">
-        <v>6367.410822088068</v>
+        <v>23932.73863636364</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4949999849001567</v>
+        <v>0.5274999737739563</v>
       </c>
       <c r="C32" t="n">
-        <v>6110.693033854167</v>
+        <v>23471.546875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7942424226890911</v>
+        <v>0.8961363759907809</v>
       </c>
       <c r="E32" t="n">
-        <v>6109.44746537642</v>
+        <v>23466.65696022727</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4816666642824809</v>
+        <v>0.5224999785423279</v>
       </c>
       <c r="C33" t="n">
-        <v>5862.630533854167</v>
+        <v>23014.1171875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7646969719366594</v>
+        <v>0.8931818116794933</v>
       </c>
       <c r="E33" t="n">
-        <v>5861.424760298295</v>
+        <v>23009.04634232954</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5283333460489908</v>
+        <v>0.5175000131130219</v>
       </c>
       <c r="C34" t="n">
-        <v>5623.50244140625</v>
+        <v>22564.6484375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7915151471441443</v>
+        <v>0.9126136357134039</v>
       </c>
       <c r="E34" t="n">
-        <v>5622.500665838068</v>
+        <v>22559.6640625</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5133333305517832</v>
+        <v>0.4849999845027924</v>
       </c>
       <c r="C35" t="n">
-        <v>5393.839518229167</v>
+        <v>22123.3330078125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.800909085707231</v>
+        <v>0.9265909032388167</v>
       </c>
       <c r="E35" t="n">
-        <v>5392.761940696023</v>
+        <v>22118.38920454546</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.546666661898295</v>
+        <v>0.4924999922513962</v>
       </c>
       <c r="C36" t="n">
-        <v>5172.84912109375</v>
+        <v>21690.087890625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7427272742444818</v>
+        <v>0.9173863638531078</v>
       </c>
       <c r="E36" t="n">
-        <v>5171.875</v>
+        <v>21685.26136363636</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4866666694482167</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C37" t="n">
-        <v>4960.07275390625</v>
+        <v>21264.4404296875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7780303033915433</v>
+        <v>0.9268181811679493</v>
       </c>
       <c r="E37" t="n">
-        <v>4959.103204900568</v>
+        <v>21259.95401278409</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5066666603088379</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="C38" t="n">
-        <v>4755.673177083333</v>
+        <v>20846.890625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7687878771261736</v>
+        <v>0.9231818155808882</v>
       </c>
       <c r="E38" t="n">
-        <v>4754.612371271307</v>
+        <v>20842.39328835227</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5150000055631002</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C39" t="n">
-        <v>4559.048828125</v>
+        <v>20436.767578125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.770151514898647</v>
+        <v>0.9353409138592806</v>
       </c>
       <c r="E39" t="n">
-        <v>4557.905983664773</v>
+        <v>20432.42666903409</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4916666646798452</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C40" t="n">
-        <v>4369.597819010417</v>
+        <v>20033.806640625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7510606077584353</v>
+        <v>0.9220454530282454</v>
       </c>
       <c r="E40" t="n">
-        <v>4368.725142045455</v>
+        <v>20030.00177556818</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4966666698455811</v>
+        <v>0.510000005364418</v>
       </c>
       <c r="C41" t="n">
-        <v>4187.970377604167</v>
+        <v>19639.177734375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7110606106844816</v>
+        <v>0.9172727248885415</v>
       </c>
       <c r="E41" t="n">
-        <v>4186.945423473011</v>
+        <v>19634.93821022727</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5333333214124044</v>
+        <v>0.5474999845027924</v>
       </c>
       <c r="C42" t="n">
-        <v>4012.454996744792</v>
+        <v>19251.5078125</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7878787842663851</v>
+        <v>0.909431820566004</v>
       </c>
       <c r="E42" t="n">
-        <v>4011.680797230114</v>
+        <v>19247.11221590909</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5116666555404663</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C43" t="n">
-        <v>3844.37353515625</v>
+        <v>18870.388671875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7746969705278223</v>
+        <v>0.9226136424324729</v>
       </c>
       <c r="E43" t="n">
-        <v>3843.486294833097</v>
+        <v>18866.30841619318</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5433333317438761</v>
+        <v>0.5450000166893005</v>
       </c>
       <c r="C44" t="n">
-        <v>3682.716552734375</v>
+        <v>18496.529296875</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7260606045072729</v>
+        <v>0.9272727261890065</v>
       </c>
       <c r="E44" t="n">
-        <v>3681.907947887074</v>
+        <v>18492.52024147727</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5249999860922495</v>
+        <v>0.4949999898672104</v>
       </c>
       <c r="C45" t="n">
-        <v>3527.058675130208</v>
+        <v>18129.82421875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7759090851653706</v>
+        <v>0.9432954571463845</v>
       </c>
       <c r="E45" t="n">
-        <v>3526.310380415483</v>
+        <v>18125.60529119318</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5316666563351949</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C46" t="n">
-        <v>3377.719482421875</v>
+        <v>17769.474609375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7734848450530659</v>
+        <v>0.925454551523382</v>
       </c>
       <c r="E46" t="n">
-        <v>3376.906016956676</v>
+        <v>17765.51331676136</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5224999785423279</v>
       </c>
       <c r="C47" t="n">
-        <v>3234.043050130208</v>
+        <v>17415.6513671875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7765151560306549</v>
+        <v>0.9288636337627064</v>
       </c>
       <c r="E47" t="n">
-        <v>3233.306119051847</v>
+        <v>17412.03533380682</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5083333154519399</v>
+        <v>0.5149999856948853</v>
       </c>
       <c r="C48" t="n">
-        <v>3096.246988932292</v>
+        <v>17069.2158203125</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6887878802689639</v>
+        <v>0.9326136383143339</v>
       </c>
       <c r="E48" t="n">
-        <v>3095.587457830256</v>
+        <v>17065.04865056818</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4983333349227905</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C49" t="n">
-        <v>2963.643798828125</v>
+        <v>16728.4130859375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7134848507967863</v>
+        <v>0.923068182034926</v>
       </c>
       <c r="E49" t="n">
-        <v>2962.963512073864</v>
+        <v>16724.51225142046</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4866666495800018</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C50" t="n">
-        <v>2836.224039713542</v>
+        <v>16393.6572265625</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7454545497894287</v>
+        <v>0.9434090852737427</v>
       </c>
       <c r="E50" t="n">
-        <v>2835.512850674716</v>
+        <v>16390.17329545454</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5216666758060455</v>
+        <v>0.5150000005960464</v>
       </c>
       <c r="C51" t="n">
-        <v>2713.740152994792</v>
+        <v>16065.81640625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7512121200561523</v>
+        <v>0.9468181783502753</v>
       </c>
       <c r="E51" t="n">
-        <v>2713.172918146307</v>
+        <v>16062.109375</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5116666654745737</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C52" t="n">
-        <v>2596.563557942708</v>
+        <v>15743.8427734375</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6636363593014803</v>
+        <v>0.9298863681879911</v>
       </c>
       <c r="E52" t="n">
-        <v>2596.016102183949</v>
+        <v>15740.17924360795</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4850000043710073</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C53" t="n">
-        <v>2483.836507161458</v>
+        <v>15427.67578125</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6836363673210144</v>
+        <v>0.9470454562794078</v>
       </c>
       <c r="E53" t="n">
-        <v>2483.156660600142</v>
+        <v>15424.12961647727</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5283333361148834</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C54" t="n">
-        <v>2375.322347005208</v>
+        <v>15117.5185546875</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6962121264501051</v>
+        <v>0.9197727279229597</v>
       </c>
       <c r="E54" t="n">
-        <v>2374.797507546165</v>
+        <v>15114.07350852273</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4916666746139526</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C55" t="n">
-        <v>2271.29931640625</v>
+        <v>14813.0234375</v>
       </c>
       <c r="D55" t="n">
-        <v>0.733333332972093</v>
+        <v>0.9306818246841431</v>
       </c>
       <c r="E55" t="n">
-        <v>2270.748024680398</v>
+        <v>14809.69291548295</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5099999904632568</v>
+        <v>0.5175000131130219</v>
       </c>
       <c r="C56" t="n">
-        <v>2171.88671875</v>
+        <v>14514.056640625</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6307575838132338</v>
+        <v>0.9043181809512052</v>
       </c>
       <c r="E56" t="n">
-        <v>2171.311356977983</v>
+        <v>14511.07093394886</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5249999860922495</v>
+        <v>0.489999994635582</v>
       </c>
       <c r="C57" t="n">
-        <v>2075.836181640625</v>
+        <v>14221.2373046875</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6772727288983085</v>
+        <v>0.9242045500061729</v>
       </c>
       <c r="E57" t="n">
-        <v>2075.409612482244</v>
+        <v>14217.87544389205</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4966666499773661</v>
+        <v>0.4824999868869781</v>
       </c>
       <c r="C58" t="n">
-        <v>1983.786539713542</v>
+        <v>13933.27587890625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7353030334819447</v>
+        <v>0.9297727292234247</v>
       </c>
       <c r="E58" t="n">
-        <v>1983.376276189631</v>
+        <v>13930.22691761364</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4849999944368998</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C59" t="n">
-        <v>1896.020304361979</v>
+        <v>13651.24755859375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6257575750350952</v>
+        <v>0.9213636354966597</v>
       </c>
       <c r="E59" t="n">
-        <v>1895.539894797585</v>
+        <v>13648</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5183333456516266</v>
+        <v>0.5250000059604645</v>
       </c>
       <c r="C60" t="n">
-        <v>1811.231486002604</v>
+        <v>13373.990234375</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7015151489864696</v>
+        <v>0.9432954571463845</v>
       </c>
       <c r="E60" t="n">
-        <v>1810.791859019886</v>
+        <v>13370.947265625</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5400000015894572</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C61" t="n">
-        <v>1730.118611653646</v>
+        <v>13102.06103515625</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6713636382059618</v>
+        <v>0.9145454547621987</v>
       </c>
       <c r="E61" t="n">
-        <v>1729.78495649858</v>
+        <v>13099.23064630682</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4883333444595337</v>
+        <v>0.5149999856948853</v>
       </c>
       <c r="C62" t="n">
-        <v>1652.64306640625</v>
+        <v>12835.19287109375</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6378787891431288</v>
+        <v>0.9371590939435092</v>
       </c>
       <c r="E62" t="n">
-        <v>1652.173212224787</v>
+        <v>12832.48135653409</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4849999944368998</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C63" t="n">
-        <v>1578.161051432292</v>
+        <v>12573.4033203125</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6436363648284565</v>
+        <v>0.9493181813846935</v>
       </c>
       <c r="E63" t="n">
-        <v>1577.692782315341</v>
+        <v>12570.77254971591</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4833333293596904</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C64" t="n">
-        <v>1506.660237630208</v>
+        <v>12316.88037109375</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6101515184749257</v>
+        <v>0.9421590891751376</v>
       </c>
       <c r="E64" t="n">
-        <v>1506.313498757102</v>
+        <v>12314.03213778409</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5383333166440328</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C65" t="n">
-        <v>1437.925252278646</v>
+        <v>12064.89892578125</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7063636400482871</v>
+        <v>0.9304545413364064</v>
       </c>
       <c r="E65" t="n">
-        <v>1437.618785511364</v>
+        <v>12062.12979403409</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5433333317438761</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C66" t="n">
-        <v>1372.406290690104</v>
+        <v>11817.71435546875</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6372727318243547</v>
+        <v>0.9411363710056652</v>
       </c>
       <c r="E66" t="n">
-        <v>1372.141335227273</v>
+        <v>11814.92702414773</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4716666539510091</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C67" t="n">
-        <v>1309.524943033854</v>
+        <v>11575.07275390625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6672727275978435</v>
+        <v>0.9410227266224948</v>
       </c>
       <c r="E67" t="n">
-        <v>1309.274563876065</v>
+        <v>11572.41281960227</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4533333281675975</v>
+        <v>0.510000005364418</v>
       </c>
       <c r="C68" t="n">
-        <v>1249.794514973958</v>
+        <v>11337.0712890625</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5657575712962584</v>
+        <v>0.9373863664540377</v>
       </c>
       <c r="E68" t="n">
-        <v>1249.438054865057</v>
+        <v>11334.49085582386</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4699999888737996</v>
+        <v>0.5274999737739563</v>
       </c>
       <c r="C69" t="n">
-        <v>1192.022623697917</v>
+        <v>11103.775390625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6128787858919664</v>
+        <v>0.9313636313785206</v>
       </c>
       <c r="E69" t="n">
-        <v>1191.675181995739</v>
+        <v>11101.09810014205</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5050000051657358</v>
+        <v>0.4724999964237213</v>
       </c>
       <c r="C70" t="n">
-        <v>1136.557739257812</v>
+        <v>10874.50244140625</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6706060658801686</v>
+        <v>0.9507954554124312</v>
       </c>
       <c r="E70" t="n">
-        <v>1136.317782315341</v>
+        <v>10872.05850497159</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4933333198229472</v>
+        <v>0.4999999850988388</v>
       </c>
       <c r="C71" t="n">
-        <v>1084.078247070312</v>
+        <v>10649.76708984375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.561212117021734</v>
+        <v>0.9293181842023676</v>
       </c>
       <c r="E71" t="n">
-        <v>1083.826149680398</v>
+        <v>10647.45205965909</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4833333293596904</v>
+        <v>0.4974999874830246</v>
       </c>
       <c r="C72" t="n">
-        <v>1033.454467773438</v>
+        <v>10429.576171875</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6010606017979708</v>
+        <v>0.9355681755326011</v>
       </c>
       <c r="E72" t="n">
-        <v>1033.15176114169</v>
+        <v>10427.05149147727</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4699999888737996</v>
+        <v>0.5474999845027924</v>
       </c>
       <c r="C73" t="n">
-        <v>985.4187418619791</v>
+        <v>10212.9169921875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5218181799758564</v>
+        <v>0.9312499924139543</v>
       </c>
       <c r="E73" t="n">
-        <v>985.1854664195668</v>
+        <v>10210.86843039773</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4933333297570546</v>
+        <v>0.5174999833106995</v>
       </c>
       <c r="C74" t="n">
-        <v>938.6404418945312</v>
+        <v>10001.052734375</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6521212160587311</v>
+        <v>0.9359090870076959</v>
       </c>
       <c r="E74" t="n">
-        <v>938.4548173384233</v>
+        <v>9998.772283380682</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4949999898672104</v>
       </c>
       <c r="C75" t="n">
-        <v>894.4965616861979</v>
+        <v>9792.9560546875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6372727264057506</v>
+        <v>0.9439772800965742</v>
       </c>
       <c r="E75" t="n">
-        <v>894.2729658647017</v>
+        <v>9790.727272727272</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.546666661898295</v>
+        <v>0.4800000190734863</v>
       </c>
       <c r="C76" t="n">
-        <v>852.10888671875</v>
+        <v>9589.11328125</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6416666643186049</v>
+        <v>0.9331818222999573</v>
       </c>
       <c r="E76" t="n">
-        <v>851.9749644886364</v>
+        <v>9586.72860440341</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4550000031789144</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C77" t="n">
-        <v>811.7756958007812</v>
+        <v>9388.6220703125</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6243939453905279</v>
+        <v>0.9240909110416066</v>
       </c>
       <c r="E77" t="n">
-        <v>811.5965215509588</v>
+        <v>9386.57919034091</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4983333349227905</v>
+        <v>0.5249999761581421</v>
       </c>
       <c r="C78" t="n">
-        <v>773.09423828125</v>
+        <v>9192.3564453125</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6372727236964486</v>
+        <v>0.9279545545578003</v>
       </c>
       <c r="E78" t="n">
-        <v>772.9502951882102</v>
+        <v>9190.246448863636</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4933333297570546</v>
+        <v>0.4999999850988388</v>
       </c>
       <c r="C79" t="n">
-        <v>736.1619262695312</v>
+        <v>9000.03173828125</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6433333348144185</v>
+        <v>0.8872727264057506</v>
       </c>
       <c r="E79" t="n">
-        <v>736.0461148348721</v>
+        <v>8997.814009232954</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4883333345254262</v>
+        <v>0.5249999761581421</v>
       </c>
       <c r="C80" t="n">
-        <v>700.8936360677084</v>
+        <v>8810.6748046875</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6395454542203383</v>
+        <v>0.9101136272603815</v>
       </c>
       <c r="E80" t="n">
-        <v>700.7801180752841</v>
+        <v>8808.883167613636</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5066666603088379</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C81" t="n">
-        <v>667.253662109375</v>
+        <v>8625.50537109375</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6346969739957289</v>
+        <v>0.9207954569296404</v>
       </c>
       <c r="E81" t="n">
-        <v>667.1353815252131</v>
+        <v>8623.64559659091</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C2" t="n">
         <v>0.007874015748031496</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.01769911504424779</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C3" t="n">
         <v>0.007874015748031496</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01769911504424779</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C4" t="n">
         <v>0.02362204724409449</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.02654867256637168</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C5" t="n">
         <v>0.02362204724409449</v>
@@ -2003,35 +2003,35 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.02654867256637168</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03149606299212598</v>
+        <v>0.06299212598425197</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.03539823008849557</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03149606299212598</v>
+        <v>0.06299212598425197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.03539823008849557</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07874015748031496</v>
+        <v>0.07086614173228346</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2039,10 +2039,10 @@
         <v>0.04424778761061947</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07874015748031496</v>
+        <v>0.07086614173228346</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2050,626 +2050,626 @@
         <v>0.04424778761061947</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1023622047244094</v>
+        <v>0.07874015748031496</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.07964601769911504</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1023622047244094</v>
+        <v>0.07874015748031496</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.07964601769911504</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1102362204724409</v>
+        <v>0.1259842519685039</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.09734513274336283</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1102362204724409</v>
+        <v>0.1259842519685039</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.09734513274336283</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1181102362204724</v>
+        <v>0.1338582677165354</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1238938053097345</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1181102362204724</v>
+        <v>0.1338582677165354</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1238938053097345</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1417322834645669</v>
+        <v>0.1496062992125984</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1327433628318584</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1417322834645669</v>
+        <v>0.1496062992125984</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1327433628318584</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1496062992125984</v>
+        <v>0.1574803149606299</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1415929203539823</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1496062992125984</v>
+        <v>0.1574803149606299</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1415929203539823</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1574803149606299</v>
+        <v>0.1653543307086614</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1504424778761062</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1574803149606299</v>
+        <v>0.1653543307086614</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1504424778761062</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2125984251968504</v>
+        <v>0.1732283464566929</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1858407079646018</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2125984251968504</v>
+        <v>0.1732283464566929</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1858407079646018</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2598425196850394</v>
+        <v>0.1968503937007874</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2598425196850394</v>
+        <v>0.1968503937007874</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1946902654867257</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2755905511811024</v>
+        <v>0.2283464566929134</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.2212389380530974</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2755905511811024</v>
+        <v>0.2283464566929134</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2212389380530974</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3149606299212598</v>
+        <v>0.2440944881889764</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2389380530973451</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3149606299212598</v>
+        <v>0.2440944881889764</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2389380530973451</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3228346456692913</v>
+        <v>0.2992125984251969</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.247787610619469</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3228346456692913</v>
+        <v>0.2992125984251969</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.247787610619469</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3385826771653543</v>
+        <v>0.3070866141732284</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2654867256637168</v>
+        <v>0.2123893805309734</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3385826771653543</v>
+        <v>0.3070866141732284</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2654867256637168</v>
+        <v>0.2123893805309734</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3779527559055118</v>
+        <v>0.3149606299212598</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2920353982300885</v>
+        <v>0.2300884955752212</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3779527559055118</v>
+        <v>0.3149606299212598</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2920353982300885</v>
+        <v>0.2300884955752212</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3858267716535433</v>
+        <v>0.3228346456692913</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3008849557522124</v>
+        <v>0.2389380530973451</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3858267716535433</v>
+        <v>0.3228346456692913</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3008849557522124</v>
+        <v>0.2389380530973451</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3937007874015748</v>
+        <v>0.3307086614173229</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3628318584070797</v>
+        <v>0.3008849557522124</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3937007874015748</v>
+        <v>0.3307086614173229</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3628318584070797</v>
+        <v>0.3008849557522124</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4015748031496063</v>
+        <v>0.3543307086614173</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3982300884955752</v>
+        <v>0.3274336283185841</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4015748031496063</v>
+        <v>0.3543307086614173</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3982300884955752</v>
+        <v>0.3274336283185841</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4173228346456693</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.4336283185840708</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4173228346456693</v>
+        <v>0.3779527559055118</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.4336283185840708</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4409448818897638</v>
+        <v>0.3858267716535433</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.4424778761061947</v>
+        <v>0.3893805309734513</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4409448818897638</v>
+        <v>0.3858267716535433</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.4424778761061947</v>
+        <v>0.3893805309734513</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4488188976377953</v>
+        <v>0.4173228346456693</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.4601769911504425</v>
+        <v>0.4336283185840708</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4488188976377953</v>
+        <v>0.4173228346456693</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.4601769911504425</v>
+        <v>0.4336283185840708</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4566929133858268</v>
+        <v>0.4409448818897638</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4513274336283186</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4566929133858268</v>
+        <v>0.4409448818897638</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4513274336283186</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4724409448818898</v>
+        <v>0.4960629921259843</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.504424778761062</v>
+        <v>0.4601769911504425</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4724409448818898</v>
+        <v>0.4960629921259843</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.504424778761062</v>
+        <v>0.4601769911504425</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4881889763779528</v>
+        <v>0.5196850393700787</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.5132743362831859</v>
+        <v>0.4778761061946903</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4881889763779528</v>
+        <v>0.5196850393700787</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.5132743362831859</v>
+        <v>0.4778761061946903</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5039370078740157</v>
+        <v>0.5511811023622047</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.5221238938053098</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5039370078740157</v>
+        <v>0.5511811023622047</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.5221238938053098</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5118110236220472</v>
+        <v>0.5590551181102362</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.5398230088495575</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5118110236220472</v>
+        <v>0.5590551181102362</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5398230088495575</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5511811023622047</v>
+        <v>0.5748031496062992</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5486725663716814</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5511811023622047</v>
+        <v>0.5748031496062992</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5486725663716814</v>
+        <v>0.5309734513274337</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5590551181102362</v>
+        <v>0.5905511811023622</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5575221238938053</v>
+        <v>0.5398230088495575</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5590551181102362</v>
+        <v>0.5905511811023622</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5575221238938053</v>
+        <v>0.5398230088495575</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5748031496062992</v>
+        <v>0.6062992125984252</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5663716814159292</v>
+        <v>0.5575221238938053</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5748031496062992</v>
+        <v>0.6062992125984252</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5663716814159292</v>
+        <v>0.5575221238938053</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5905511811023622</v>
+        <v>0.6141732283464567</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5752212389380531</v>
+        <v>0.5663716814159292</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5905511811023622</v>
+        <v>0.6141732283464567</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5752212389380531</v>
+        <v>0.5663716814159292</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6062992125984252</v>
+        <v>0.6299212598425197</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2677,10 +2677,10 @@
         <v>0.5929203539823009</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6062992125984252</v>
+        <v>0.6299212598425197</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2688,32 +2688,32 @@
         <v>0.5929203539823009</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6220472440944882</v>
+        <v>0.6377952755905512</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.6283185840707964</v>
+        <v>0.6194690265486725</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6220472440944882</v>
+        <v>0.6377952755905512</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6283185840707964</v>
+        <v>0.6194690265486725</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6377952755905512</v>
+        <v>0.6456692913385826</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2721,10 +2721,10 @@
         <v>0.6548672566371682</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6377952755905512</v>
+        <v>0.6456692913385826</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2732,340 +2732,340 @@
         <v>0.6548672566371682</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6614173228346457</v>
+        <v>0.6535433070866141</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6814159292035398</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6614173228346457</v>
+        <v>0.6535433070866141</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6814159292035398</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6692913385826772</v>
+        <v>0.6614173228346457</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6991150442477876</v>
+        <v>0.672566371681416</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6692913385826772</v>
+        <v>0.6614173228346457</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6991150442477876</v>
+        <v>0.672566371681416</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7007874015748031</v>
+        <v>0.6850393700787402</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.7079646017699115</v>
+        <v>0.6902654867256637</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7007874015748031</v>
+        <v>0.6850393700787402</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7079646017699115</v>
+        <v>0.6902654867256637</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7244094488188977</v>
+        <v>0.7007874015748031</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7168141592920354</v>
+        <v>0.6991150442477876</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7244094488188977</v>
+        <v>0.7007874015748031</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7168141592920354</v>
+        <v>0.6991150442477876</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7401574803149606</v>
+        <v>0.7086614173228346</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7256637168141593</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7401574803149606</v>
+        <v>0.7086614173228346</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7256637168141593</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7716535433070866</v>
+        <v>0.7165354330708661</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7345132743362832</v>
+        <v>0.7168141592920354</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7716535433070866</v>
+        <v>0.7165354330708661</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7345132743362832</v>
+        <v>0.7168141592920354</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7795275590551181</v>
+        <v>0.7244094488188977</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7699115044247787</v>
+        <v>0.7345132743362832</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7795275590551181</v>
+        <v>0.7244094488188977</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7699115044247787</v>
+        <v>0.7345132743362832</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7952755905511811</v>
+        <v>0.7322834645669292</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7964601769911505</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7952755905511811</v>
+        <v>0.7322834645669292</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7964601769911505</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8031496062992126</v>
+        <v>0.7480314960629921</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8141592920353983</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8031496062992126</v>
+        <v>0.7480314960629921</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8141592920353983</v>
+        <v>0.7610619469026548</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8346456692913385</v>
+        <v>0.7637795275590551</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8407079646017699</v>
+        <v>0.7699115044247787</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8346456692913385</v>
+        <v>0.7637795275590551</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.8407079646017699</v>
+        <v>0.7699115044247787</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8503937007874016</v>
+        <v>0.7874015748031497</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.8495575221238938</v>
+        <v>0.7876106194690266</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8503937007874016</v>
+        <v>0.7874015748031497</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8495575221238938</v>
+        <v>0.7876106194690266</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8818897637795275</v>
+        <v>0.8031496062992126</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8672566371681416</v>
+        <v>0.831858407079646</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8818897637795275</v>
+        <v>0.8031496062992126</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8672566371681416</v>
+        <v>0.831858407079646</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9291338582677166</v>
+        <v>0.8188976377952756</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.8938053097345132</v>
+        <v>0.8495575221238938</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9291338582677166</v>
+        <v>0.8188976377952756</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8938053097345132</v>
+        <v>0.8495575221238938</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C98" t="n">
-        <v>0.937007874015748</v>
+        <v>0.8346456692913385</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.9026548672566371</v>
+        <v>0.8761061946902655</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C99" t="n">
-        <v>0.937007874015748</v>
+        <v>0.8346456692913385</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.9026548672566371</v>
+        <v>0.8761061946902655</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9448818897637795</v>
+        <v>0.84251968503937</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.911504424778761</v>
+        <v>0.8849557522123894</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9448818897637795</v>
+        <v>0.84251968503937</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.911504424778761</v>
+        <v>0.8849557522123894</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C102" t="n">
-        <v>0.952755905511811</v>
+        <v>0.8503937007874016</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3073,10 +3073,10 @@
         <v>0.9203539823008849</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C103" t="n">
-        <v>0.952755905511811</v>
+        <v>0.8503937007874016</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3084,86 +3084,119 @@
         <v>0.9203539823008849</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9606299212598425</v>
+        <v>0.8818897637795275</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9292035398230089</v>
+        <v>0.9469026548672567</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9606299212598425</v>
+        <v>0.8818897637795275</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9292035398230089</v>
+        <v>0.9469026548672567</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C106" t="n">
-        <v>0.968503937007874</v>
+        <v>0.889763779527559</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9469026548672567</v>
+        <v>0.9646017699115044</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C107" t="n">
-        <v>0.968503937007874</v>
+        <v>0.889763779527559</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9469026548672567</v>
+        <v>0.9646017699115044</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C108" t="n">
-        <v>0.984251968503937</v>
+        <v>0.937007874015748</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9557522123893806</v>
+        <v>0.9734513274336283</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C109" t="n">
-        <v>0.984251968503937</v>
+        <v>0.937007874015748</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9557522123893806</v>
+        <v>0.9734513274336283</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5243537035746638</v>
+        <v>0.523726569577033</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0.968503937007874</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
+        <v>0.9823008849557522</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.523726569577033</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.968503937007874</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0.9823008849557522</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.523726569577033</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9921259842519685</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
         <v>1</v>
       </c>
-      <c r="B111" t="n">
-        <v>0.5243537035746638</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="B113" t="n">
+        <v>0.523726569577033</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9921259842519685</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.523726569577033</v>
+      </c>
+      <c r="C114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3202,43 +3235,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008849557522123894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
+        <v>0.007874015748031496</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5237265695770329</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5243537035746639</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04424778761061947</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01574803149606299</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04424778761061947</v>
+        <v>0.01769911504424779</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.01574803149606299</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05309734513274336</v>
+        <v>0.01769911504424779</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3246,150 +3279,150 @@
         <v>0.03149606299212598</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05309734513274336</v>
+        <v>0.02654867256637168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.03149606299212598</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.02654867256637168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.03937007874015748</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07079646017699115</v>
+        <v>0.03539823008849557</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.03937007874015748</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07964601769911504</v>
+        <v>0.03539823008849557</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.04724409448818898</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07964601769911504</v>
+        <v>0.05309734513274336</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.04724409448818898</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08849557522123894</v>
+        <v>0.05309734513274336</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.05511811023622047</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08849557522123894</v>
+        <v>0.07964601769911504</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.05511811023622047</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09734513274336283</v>
+        <v>0.07964601769911504</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.06299212598425197</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09734513274336283</v>
+        <v>0.1150442477876106</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.06299212598425197</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1061946902654867</v>
+        <v>0.1150442477876106</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.07086614173228346</v>
+        <v>0.1574803149606299</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1061946902654867</v>
+        <v>0.1238938053097345</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.07086614173228346</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1327433628318584</v>
+        <v>0.1238938053097345</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1181102362204724</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1327433628318584</v>
+        <v>0.1504424778761062</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1181102362204724</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C19" t="n">
         <v>0.1504424778761062</v>
@@ -3397,120 +3430,120 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1496062992125984</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1504424778761062</v>
+        <v>0.168141592920354</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1496062992125984</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1592920353982301</v>
+        <v>0.168141592920354</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1653543307086614</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1592920353982301</v>
+        <v>0.2123893805309734</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1653543307086614</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1858407079646018</v>
+        <v>0.2123893805309734</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1968503937007874</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1858407079646018</v>
+        <v>0.2300884955752212</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1968503937007874</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2035398230088496</v>
+        <v>0.2300884955752212</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.2047244094488189</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2035398230088496</v>
+        <v>0.2389380530973451</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.2047244094488189</v>
+        <v>0.2519685039370079</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2300884955752212</v>
+        <v>0.2389380530973451</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2204724409448819</v>
+        <v>0.2519685039370079</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2300884955752212</v>
+        <v>0.247787610619469</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2204724409448819</v>
+        <v>0.2677165354330709</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2654867256637168</v>
+        <v>0.247787610619469</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2283464566929134</v>
+        <v>0.2677165354330709</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C30" t="n">
         <v>0.2654867256637168</v>
@@ -3518,32 +3551,32 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2283464566929134</v>
+        <v>0.2755905511811024</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2743362831858407</v>
+        <v>0.2654867256637168</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2598425196850394</v>
+        <v>0.2755905511811024</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2743362831858407</v>
+        <v>0.2831858407079646</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2598425196850394</v>
+        <v>0.2834645669291339</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C33" t="n">
         <v>0.2831858407079646</v>
@@ -3551,21 +3584,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2755905511811024</v>
+        <v>0.2834645669291339</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2831858407079646</v>
+        <v>0.2920353982300885</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2755905511811024</v>
+        <v>0.2913385826771653</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C35" t="n">
         <v>0.2920353982300885</v>
@@ -3573,13 +3606,13 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2992125984251969</v>
+        <v>0.2913385826771653</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2920353982300885</v>
+        <v>0.3008849557522124</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3587,7 +3620,7 @@
         <v>0.2992125984251969</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C37" t="n">
         <v>0.3008849557522124</v>
@@ -3595,35 +3628,35 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3307086614173229</v>
+        <v>0.2992125984251969</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3008849557522124</v>
+        <v>0.3097345132743363</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3307086614173229</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3185840707964602</v>
+        <v>0.3097345132743363</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3385826771653543</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3185840707964602</v>
+        <v>0.3274336283185841</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3631,106 +3664,106 @@
         <v>0.3385826771653543</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3451327433628318</v>
+        <v>0.3274336283185841</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3622047244094488</v>
+        <v>0.3385826771653543</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3451327433628318</v>
+        <v>0.336283185840708</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3622047244094488</v>
+        <v>0.3464566929133858</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3716814159292036</v>
+        <v>0.336283185840708</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3779527559055118</v>
+        <v>0.3464566929133858</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3716814159292036</v>
+        <v>0.3451327433628318</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3779527559055118</v>
+        <v>0.3543307086614173</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4070796460176991</v>
+        <v>0.3451327433628318</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3937007874015748</v>
+        <v>0.3543307086614173</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4070796460176991</v>
+        <v>0.3805309734513274</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3937007874015748</v>
+        <v>0.3622047244094488</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4247787610619469</v>
+        <v>0.3805309734513274</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.4094488188976378</v>
+        <v>0.3622047244094488</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4247787610619469</v>
+        <v>0.4070796460176991</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.4094488188976378</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4336283185840708</v>
+        <v>0.4070796460176991</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4251968503937008</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C50" t="n">
         <v>0.4336283185840708</v>
@@ -3738,21 +3771,21 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4251968503937008</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4424778761061947</v>
+        <v>0.4336283185840708</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4409448818897638</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C52" t="n">
         <v>0.4424778761061947</v>
@@ -3760,32 +3793,32 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4409448818897638</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4513274336283186</v>
+        <v>0.4424778761061947</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4488188976377953</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4513274336283186</v>
+        <v>0.4601769911504425</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4488188976377953</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C55" t="n">
         <v>0.4601769911504425</v>
@@ -3793,32 +3826,32 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4881889763779528</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4601769911504425</v>
+        <v>0.4690265486725664</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4881889763779528</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4778761061946903</v>
+        <v>0.4690265486725664</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4960629921259843</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C58" t="n">
         <v>0.4778761061946903</v>
@@ -3826,32 +3859,32 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4960629921259843</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4778761061946903</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5118110236220472</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.495575221238938</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5118110236220472</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C61" t="n">
         <v>0.495575221238938</v>
@@ -3859,43 +3892,43 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5275590551181102</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C62" t="n">
-        <v>0.495575221238938</v>
+        <v>0.5221238938053098</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5275590551181102</v>
+        <v>0.4803149606299212</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5132743362831859</v>
+        <v>0.5221238938053098</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5433070866141733</v>
+        <v>0.4803149606299212</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5132743362831859</v>
+        <v>0.5398230088495575</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5433070866141733</v>
+        <v>0.5039370078740157</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C65" t="n">
         <v>0.5398230088495575</v>
@@ -3903,24 +3936,24 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5511811023622047</v>
+        <v>0.5039370078740157</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5398230088495575</v>
+        <v>0.5486725663716814</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5511811023622047</v>
+        <v>0.5590551181102362</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5575221238938053</v>
+        <v>0.5486725663716814</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3928,18 +3961,18 @@
         <v>0.5590551181102362</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5575221238938053</v>
+        <v>0.5663716814159292</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5590551181102362</v>
+        <v>0.5826771653543307</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C69" t="n">
         <v>0.5663716814159292</v>
@@ -3950,73 +3983,73 @@
         <v>0.5826771653543307</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5663716814159292</v>
+        <v>0.6106194690265486</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5826771653543307</v>
+        <v>0.6141732283464567</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6017699115044248</v>
+        <v>0.6106194690265486</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5984251968503937</v>
+        <v>0.6141732283464567</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6017699115044248</v>
+        <v>0.6194690265486725</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5984251968503937</v>
+        <v>0.6220472440944882</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6371681415929203</v>
+        <v>0.6194690265486725</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6062992125984252</v>
+        <v>0.6220472440944882</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6371681415929203</v>
+        <v>0.672566371681416</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6062992125984252</v>
+        <v>0.6456692913385826</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6991150442477876</v>
+        <v>0.672566371681416</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6141732283464567</v>
+        <v>0.6456692913385826</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C76" t="n">
         <v>0.6991150442477876</v>
@@ -4024,164 +4057,164 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6141732283464567</v>
+        <v>0.6692913385826772</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7079646017699115</v>
+        <v>0.6991150442477876</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6220472440944882</v>
+        <v>0.6692913385826772</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7079646017699115</v>
+        <v>0.7610619469026548</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6220472440944882</v>
+        <v>0.6771653543307087</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7345132743362832</v>
+        <v>0.7610619469026548</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6614173228346457</v>
+        <v>0.6771653543307087</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7345132743362832</v>
+        <v>0.7699115044247787</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6614173228346457</v>
+        <v>0.6850393700787402</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7522123893805309</v>
+        <v>0.7699115044247787</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6771653543307087</v>
+        <v>0.6850393700787402</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7522123893805309</v>
+        <v>0.7876106194690266</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6771653543307087</v>
+        <v>0.6929133858267716</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7610619469026548</v>
+        <v>0.7876106194690266</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6850393700787402</v>
+        <v>0.6929133858267716</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7610619469026548</v>
+        <v>0.8141592920353983</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6850393700787402</v>
+        <v>0.7007874015748031</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7787610619469026</v>
+        <v>0.8141592920353983</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7244094488188977</v>
+        <v>0.7007874015748031</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7787610619469026</v>
+        <v>0.831858407079646</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7244094488188977</v>
+        <v>0.7559055118110236</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8053097345132744</v>
+        <v>0.831858407079646</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7401574803149606</v>
+        <v>0.7559055118110236</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8053097345132744</v>
+        <v>0.8407079646017699</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7401574803149606</v>
+        <v>0.7716535433070866</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8141592920353983</v>
+        <v>0.8407079646017699</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7874015748031497</v>
+        <v>0.7716535433070866</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8141592920353983</v>
+        <v>0.8495575221238938</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7874015748031497</v>
+        <v>0.8031496062992126</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C91" t="n">
         <v>0.8495575221238938</v>
@@ -4189,21 +4222,21 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.84251968503937</v>
+        <v>0.8031496062992126</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8495575221238938</v>
+        <v>0.8584070796460177</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.84251968503937</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C93" t="n">
         <v>0.8584070796460177</v>
@@ -4211,21 +4244,21 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8503937007874016</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8584070796460177</v>
+        <v>0.8672566371681416</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8503937007874016</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C95" t="n">
         <v>0.8672566371681416</v>
@@ -4233,43 +4266,43 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8582677165354331</v>
+        <v>0.8346456692913385</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8672566371681416</v>
+        <v>0.8938053097345132</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.8582677165354331</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8761061946902655</v>
+        <v>0.8938053097345132</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8818897637795275</v>
+        <v>0.84251968503937</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8761061946902655</v>
+        <v>0.9026548672566371</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8818897637795275</v>
+        <v>0.8503937007874016</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C99" t="n">
         <v>0.9026548672566371</v>
@@ -4277,21 +4310,21 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.889763779527559</v>
+        <v>0.8503937007874016</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9026548672566371</v>
+        <v>0.9203539823008849</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.889763779527559</v>
+        <v>0.8661417322834646</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C101" t="n">
         <v>0.9203539823008849</v>
@@ -4299,35 +4332,35 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8976377952755905</v>
+        <v>0.8661417322834646</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9203539823008849</v>
+        <v>0.9292035398230089</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8976377952755905</v>
+        <v>0.8740157480314961</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9557522123893806</v>
+        <v>0.9292035398230089</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9212598425196851</v>
+        <v>0.8740157480314961</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9557522123893806</v>
+        <v>0.9469026548672567</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4335,40 +4368,40 @@
         <v>0.9212598425196851</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9646017699115044</v>
+        <v>0.9469026548672567</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.968503937007874</v>
+        <v>0.9212598425196851</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9646017699115044</v>
+        <v>0.9557522123893806</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.968503937007874</v>
+        <v>0.9291338582677166</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9734513274336283</v>
+        <v>0.9557522123893806</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9763779527559056</v>
+        <v>0.9291338582677166</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C108" t="n">
         <v>0.9734513274336283</v>
@@ -4376,21 +4409,21 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9763779527559056</v>
+        <v>0.937007874015748</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9823008849557522</v>
+        <v>0.9734513274336283</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9921259842519685</v>
+        <v>0.937007874015748</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C110" t="n">
         <v>0.9823008849557522</v>
@@ -4398,23 +4431,56 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9921259842519685</v>
+        <v>0.9763779527559056</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5243537035746639</v>
+        <v>0.5237265695770329</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0.9823008849557522</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
+        <v>0.9763779527559056</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5237265695770329</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9911504424778761</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.9921259842519685</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5237265695770329</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9911504424778761</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.9921259842519685</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5237265695770329</v>
+      </c>
+      <c r="C114" t="n">
         <v>1</v>
       </c>
-      <c r="B112" t="n">
-        <v>0.5243537035746639</v>
-      </c>
-      <c r="C112" t="n">
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5237265695770329</v>
+      </c>
+      <c r="C115" t="n">
         <v>1</v>
       </c>
     </row>
